--- a/35. 8BONUS - 3 Trucos (1).xlsx.xlsx
+++ b/35. 8BONUS - 3 Trucos (1).xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Miguel\Miguel Maraby\Videocursos\2Excel Completo - Desde Principiante Hasta Avanzado\Producción\Excel y Word\BONOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAUL\Downloads\Materiales-Para-Descargar\Curso_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA77D6B2-35AD-47C2-8B2F-C501BE51D68C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E702C7-0C5D-4946-A595-5361032FE453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{779BB3E5-57C0-4FC3-9312-8B5E4820B93D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="2" xr2:uid="{779BB3E5-57C0-4FC3-9312-8B5E4820B93D}"/>
   </bookViews>
   <sheets>
     <sheet name="Copia y Pega " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+  <si>
+    <t>Curso Excel</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -123,7 +148,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="258366" y="138113"/>
-          <a:ext cx="2224722" cy="1252537"/>
+          <a:ext cx="2224722" cy="1185862"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -135,15 +160,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>687626</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:colOff>705406</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>626348</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>644128</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -172,8 +197,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7027466" y="1928813"/>
-          <a:ext cx="2316162" cy="1199197"/>
+          <a:off x="6801406" y="138113"/>
+          <a:ext cx="2224722" cy="1185862"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -186,14 +211,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>166926</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>160973</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>75168</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -209,7 +234,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -222,8 +247,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10469166" y="1075373"/>
-          <a:ext cx="2285682" cy="1199197"/>
+          <a:off x="10072926" y="138113"/>
+          <a:ext cx="2194242" cy="1185862"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -234,16 +259,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>705406</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>107633</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>481886</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>644128</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>420608</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -272,8 +297,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3082846" y="2485073"/>
-          <a:ext cx="2316162" cy="1199197"/>
+          <a:off x="3529886" y="138113"/>
+          <a:ext cx="2224722" cy="1185862"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -582,14 +607,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8C742E-F0C2-414C-8046-CC5882B470A0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -599,10 +700,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -611,14 +712,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1DED16-E68B-43DE-BB9A-F050BAB93857}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>